--- a/app/src/main/assets/invoice_template.xlsx
+++ b/app/src/main/assets/invoice_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\android test\Tellymobile2\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A322E7FF-C063-439D-A051-AAB31068B11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266315E4-469C-4E72-8202-ABB0A1C68BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="19440" windowHeight="14880" xr2:uid="{08DC41D5-8E58-47E5-B931-0654A3799B58}"/>
+    <workbookView xWindow="2745" yWindow="2985" windowWidth="12960" windowHeight="10395" xr2:uid="{08DC41D5-8E58-47E5-B931-0654A3799B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="103">
   <si>
     <t/>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>{{TOTAL_SGST_TOTAL}}</t>
+  </si>
+  <si>
+    <t>{{BUYER_NAME}}</t>
   </si>
 </sst>
 </file>
@@ -1145,143 +1148,11 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1291,126 +1162,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1430,6 +1181,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1457,6 +1223,213 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1467,27 +1440,57 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1809,8 +1812,8 @@
   </sheetPr>
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35:N35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1819,370 +1822,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="82"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="122"/>
       <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="86" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="85" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="85" t="s">
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="86"/>
-      <c r="N2" s="87"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="43"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="139"/>
-      <c r="B3" s="140"/>
-      <c r="C3" s="141"/>
-      <c r="D3" s="86" t="s">
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="88" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="88" t="s">
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="89"/>
-      <c r="N3" s="90"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="139"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="86" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="113" t="s">
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="113" t="s">
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="91"/>
-      <c r="N4" s="92"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="139"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="86" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="88" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="88" t="s">
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="M5" s="89"/>
-      <c r="N5" s="90"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="53"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="139"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="86" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="85" t="s">
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="85" t="s">
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="43"/>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="139"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="88" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="88" t="s">
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="M7" s="89"/>
-      <c r="N7" s="90"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="86" t="s">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="85" t="s">
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="85" t="s">
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="86"/>
-      <c r="N8" s="87"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="43"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="139"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="141"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
       <c r="D9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="53"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="28" t="s">
         <v>7</v>
       </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="88" t="s">
+      <c r="I9" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="88" t="s">
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="M9" s="89"/>
-      <c r="N9" s="90"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="86" t="s">
+      <c r="A10" s="60"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="85" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="85" t="s">
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="86"/>
-      <c r="N10" s="87"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="142"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="86" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="88" t="s">
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="90"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="53"/>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="120"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="131" t="s">
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="129"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="128" t="s">
+      <c r="J12" s="45"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="M12" s="129"/>
-      <c r="N12" s="130"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="46"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="93"/>
-      <c r="L13" s="88" t="s">
+      <c r="A13" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="89"/>
-      <c r="N13" s="90"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="53"/>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="91" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="92"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="69"/>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="85" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="87"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="87"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="43"/>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B17" s="86"/>
-      <c r="C17" s="53" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="53"/>
+      <c r="D17" s="74"/>
       <c r="E17" s="28" t="s">
         <v>82</v>
       </c>
@@ -2191,296 +2194,296 @@
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="87"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="43"/>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="87"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="87"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="43"/>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="89" t="s">
+      <c r="C20" s="73"/>
+      <c r="D20" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="87"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="43"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="119" t="s">
+      <c r="A21" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="120"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="87"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="43"/>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="87"/>
+      <c r="A22" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="43"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="87"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="43"/>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="87"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="43"/>
       <c r="O24" s="1"/>
     </row>
     <row r="25" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="87"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="43"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="87"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="43"/>
       <c r="O26" s="1"/>
     </row>
     <row r="27" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="87"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="43"/>
       <c r="O27" s="1"/>
     </row>
     <row r="28" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="87"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="43"/>
       <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="57"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
-      <c r="N29" s="90"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="53"/>
       <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="103" t="s">
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="105"/>
-      <c r="H30" s="103" t="s">
+      <c r="G30" s="90"/>
+      <c r="H30" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="I30" s="105"/>
-      <c r="J30" s="103" t="s">
+      <c r="I30" s="90"/>
+      <c r="J30" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="K30" s="105"/>
-      <c r="L30" s="114" t="s">
+      <c r="K30" s="90"/>
+      <c r="L30" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="M30" s="104" t="s">
+      <c r="M30" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="105"/>
+      <c r="N30" s="90"/>
       <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="84"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="108"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="93"/>
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2504,52 +2507,52 @@
       <c r="A33" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="124" t="s">
+      <c r="B33" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="125"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="79" t="s">
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="76"/>
-      <c r="H33" s="79" t="s">
+      <c r="G33" s="116"/>
+      <c r="H33" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="76"/>
-      <c r="J33" s="79" t="s">
+      <c r="I33" s="116"/>
+      <c r="J33" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="K33" s="76"/>
+      <c r="K33" s="116"/>
       <c r="L33" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M33" s="75" t="s">
+      <c r="M33" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="N33" s="76"/>
+      <c r="N33" s="116"/>
       <c r="O33" s="1"/>
     </row>
     <row r="34" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
-      <c r="B34" s="124" t="s">
+      <c r="B34" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="76"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="86"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="119"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="116"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="77" t="s">
+      <c r="M34" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="N34" s="78"/>
+      <c r="N34" s="118"/>
       <c r="O34" s="1"/>
     </row>
     <row r="35" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2559,41 +2562,41 @@
       <c r="B35" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C35" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="96"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="52"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="127" t="s">
+      <c r="D35" s="83"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="K35" s="97"/>
+      <c r="K35" s="84"/>
       <c r="L35" s="13"/>
-      <c r="M35" s="53" t="s">
+      <c r="M35" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="N35" s="54"/>
+      <c r="N35" s="81"/>
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="54"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="81"/>
       <c r="L36" s="13"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="54"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="81"/>
       <c r="O36" s="1"/>
     </row>
     <row r="37" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2603,43 +2606,43 @@
       <c r="B37" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="122"/>
-      <c r="D37" s="122"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="93"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="80"/>
       <c r="L37" s="17"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="93"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="80"/>
       <c r="O37" s="1"/>
     </row>
     <row r="38" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="45"/>
-      <c r="H38" s="43" t="s">
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="I38" s="45"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="45"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="79"/>
       <c r="L38" s="20"/>
-      <c r="M38" s="43" t="s">
+      <c r="M38" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="N38" s="45"/>
+      <c r="N38" s="79"/>
       <c r="O38" s="1"/>
     </row>
     <row r="39" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2657,67 +2660,67 @@
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
-      <c r="M39" s="98" t="s">
+      <c r="M39" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="N39" s="99"/>
+      <c r="N39" s="105"/>
       <c r="O39" s="1"/>
     </row>
     <row r="40" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="100" t="s">
+      <c r="A40" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="102"/>
+      <c r="B40" s="107"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="107"/>
+      <c r="H40" s="107"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="107"/>
+      <c r="K40" s="107"/>
+      <c r="L40" s="107"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="108"/>
       <c r="O40" s="1"/>
     </row>
     <row r="41" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="103" t="s">
+      <c r="A41" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="104"/>
-      <c r="C41" s="104"/>
-      <c r="D41" s="104"/>
-      <c r="E41" s="104"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="109" t="s">
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="H41" s="110"/>
-      <c r="I41" s="94" t="s">
+      <c r="H41" s="112"/>
+      <c r="I41" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="95"/>
-      <c r="K41" s="94" t="s">
+      <c r="J41" s="98"/>
+      <c r="K41" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="L41" s="95"/>
-      <c r="M41" s="149" t="s">
+      <c r="L41" s="98"/>
+      <c r="M41" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="N41" s="150"/>
+      <c r="N41" s="100"/>
       <c r="O41" s="1"/>
     </row>
     <row r="42" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="106"/>
-      <c r="B42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="108"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="112"/>
+      <c r="A42" s="91"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="114"/>
       <c r="I42" s="6" t="s">
         <v>18</v>
       </c>
@@ -2730,25 +2733,25 @@
       <c r="L42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M42" s="151" t="s">
+      <c r="M42" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="N42" s="152"/>
+      <c r="N42" s="110"/>
       <c r="O42" s="1"/>
     </row>
     <row r="43" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="70" t="s">
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="151" t="s">
         <v>92</v>
       </c>
-      <c r="H43" s="71"/>
+      <c r="H43" s="152"/>
       <c r="I43" s="25" t="s">
         <v>93</v>
       </c>
@@ -2761,75 +2764,75 @@
       <c r="L43" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="M43" s="66" t="s">
+      <c r="M43" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="N43" s="67"/>
+      <c r="N43" s="148"/>
       <c r="O43" s="1"/>
     </row>
     <row r="44" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="72" t="s">
+      <c r="A44" s="153" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="153" t="s">
+      <c r="B44" s="154"/>
+      <c r="C44" s="154"/>
+      <c r="D44" s="154"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="H44" s="154"/>
-      <c r="I44" s="155"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="40"/>
       <c r="J44" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="K44" s="155"/>
+      <c r="K44" s="40"/>
       <c r="L44" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="M44" s="68" t="s">
+      <c r="M44" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="N44" s="69"/>
+      <c r="N44" s="150"/>
       <c r="O44" s="1"/>
     </row>
     <row r="45" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="91" t="s">
+      <c r="B45" s="146"/>
+      <c r="C45" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="91"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91"/>
-      <c r="M45" s="91"/>
-      <c r="N45" s="92"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="69"/>
       <c r="O45" s="1"/>
     </row>
     <row r="46" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="87"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="43"/>
       <c r="O46" s="1"/>
     </row>
     <row r="47" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2873,11 +2876,11 @@
       <c r="D49" s="29"/>
       <c r="E49" s="29"/>
       <c r="F49" s="29"/>
-      <c r="G49" s="58" t="s">
+      <c r="G49" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="H49" s="58"/>
-      <c r="I49" s="58"/>
+      <c r="H49" s="138"/>
+      <c r="I49" s="138"/>
       <c r="J49" s="29"/>
       <c r="K49" s="29"/>
       <c r="L49" s="29"/>
@@ -2892,20 +2895,20 @@
       <c r="D50" s="30"/>
       <c r="E50" s="30"/>
       <c r="F50" s="30"/>
-      <c r="G50" s="58" t="s">
+      <c r="G50" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="H50" s="58"/>
+      <c r="H50" s="138"/>
       <c r="I50" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J50" s="59" t="s">
+      <c r="J50" s="139" t="s">
         <v>76</v>
       </c>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="60"/>
+      <c r="K50" s="139"/>
+      <c r="L50" s="139"/>
+      <c r="M50" s="139"/>
+      <c r="N50" s="140"/>
       <c r="O50" s="1"/>
     </row>
     <row r="51" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2915,104 +2918,104 @@
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
       <c r="F51" s="30"/>
-      <c r="G51" s="58" t="s">
+      <c r="G51" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="H51" s="58"/>
+      <c r="H51" s="138"/>
       <c r="I51" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J51" s="59" t="s">
+      <c r="J51" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="60"/>
+      <c r="K51" s="139"/>
+      <c r="L51" s="139"/>
+      <c r="M51" s="139"/>
+      <c r="N51" s="140"/>
       <c r="O51" s="1"/>
     </row>
     <row r="52" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="57"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="57" t="s">
+      <c r="D52" s="73" t="s">
         <v>79</v>
       </c>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="61" t="s">
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="H52" s="61"/>
+      <c r="H52" s="141"/>
       <c r="I52" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="J52" s="39" t="s">
+      <c r="J52" s="125" t="s">
         <v>78</v>
       </c>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
-      <c r="N52" s="40"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="125"/>
+      <c r="M52" s="125"/>
+      <c r="N52" s="126"/>
       <c r="O52" s="1"/>
     </row>
     <row r="53" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="62" t="s">
+      <c r="A53" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="B53" s="63"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="64"/>
-      <c r="G53" s="148" t="s">
+      <c r="B53" s="143"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="143"/>
+      <c r="E53" s="143"/>
+      <c r="F53" s="144"/>
+      <c r="G53" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="H53" s="145" t="s">
+      <c r="H53" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="I53" s="145"/>
-      <c r="J53" s="145"/>
-      <c r="K53" s="148" t="s">
+      <c r="I53" s="135"/>
+      <c r="J53" s="135"/>
+      <c r="K53" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="L53" s="146" t="s">
+      <c r="L53" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="M53" s="146"/>
-      <c r="N53" s="147"/>
+      <c r="M53" s="136"/>
+      <c r="N53" s="137"/>
       <c r="O53" s="1"/>
     </row>
     <row r="54" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="48"/>
+      <c r="B54" s="130"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="130"/>
+      <c r="E54" s="130"/>
+      <c r="F54" s="131"/>
       <c r="G54" s="33"/>
       <c r="H54" s="33"/>
       <c r="I54" s="33"/>
       <c r="J54" s="33"/>
       <c r="K54" s="33"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="42"/>
+      <c r="L54" s="127"/>
+      <c r="M54" s="127"/>
+      <c r="N54" s="128"/>
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="49"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="51"/>
+      <c r="A55" s="132"/>
+      <c r="B55" s="133"/>
+      <c r="C55" s="133"/>
+      <c r="D55" s="133"/>
+      <c r="E55" s="133"/>
+      <c r="F55" s="134"/>
       <c r="G55" s="32" t="s">
         <v>31</v>
       </c>
@@ -3020,30 +3023,30 @@
       <c r="I55" s="32"/>
       <c r="J55" s="33"/>
       <c r="K55" s="33"/>
-      <c r="L55" s="41" t="s">
+      <c r="L55" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="M55" s="41"/>
-      <c r="N55" s="42"/>
+      <c r="M55" s="127"/>
+      <c r="N55" s="128"/>
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="116" t="s">
+      <c r="A56" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="117"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="117"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="117"/>
-      <c r="I56" s="117"/>
-      <c r="J56" s="117"/>
-      <c r="K56" s="117"/>
-      <c r="L56" s="117"/>
-      <c r="M56" s="117"/>
-      <c r="N56" s="118"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="72"/>
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -3081,34 +3084,87 @@
     </row>
   </sheetData>
   <mergeCells count="143">
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="D20:H20"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A2:C11"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="J52:N52"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A54:F55"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="A46:N46"/>
+    <mergeCell ref="C45:N45"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A41:F42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="M30:N31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="J30:K31"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="F30:G31"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="I29:N29"/>
     <mergeCell ref="A56:N56"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A15:H15"/>
@@ -3133,20 +3189,16 @@
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="B30:E31"/>
     <mergeCell ref="J35:K35"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="M30:N31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="J30:K31"/>
-    <mergeCell ref="H30:I31"/>
-    <mergeCell ref="F30:G31"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A28:H28"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A2:C11"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="I4:K4"/>
@@ -3156,74 +3208,25 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A41:F42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="G41:H42"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A18:H18"/>
-    <mergeCell ref="J52:N52"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A54:F55"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="A46:N46"/>
-    <mergeCell ref="C45:N45"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="I22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="360" r:id="rId1"/>
